--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -20,27 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">nombres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apellidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claves</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">Prof. Scot Labadie</t>
   </si>
   <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">Enrique Kassulke</t>
@@ -229,6 +226,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -312,11 +310,11 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A890" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -348,413 +346,413 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Prof. Scot Labadie</t>
   </si>
   <si>
+    <t xml:space="preserve">Labadie</t>
+  </si>
+  <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">Dr. Marian Altenwerth I</t>
   </si>
   <si>
+    <t xml:space="preserve">Marian Altenwerth I</t>
+  </si>
+  <si>
     <t xml:space="preserve">naomi15@example.net</t>
   </si>
   <si>
@@ -61,7 +67,7 @@
     <t xml:space="preserve">Filiberto </t>
   </si>
   <si>
-    <t xml:space="preserve">Updated</t>
+    <t xml:space="preserve">Actualizado</t>
   </si>
   <si>
     <t xml:space="preserve">pleannon@example.com</t>
@@ -194,10 +200,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -223,10 +229,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>3</v>
@@ -234,13 +240,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>3</v>
@@ -248,13 +254,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>3</v>
@@ -262,13 +268,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>3</v>
@@ -276,13 +282,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>3</v>
@@ -290,13 +296,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>3</v>
@@ -304,13 +310,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>3</v>
@@ -318,13 +324,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>3</v>
@@ -332,13 +338,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>3</v>
@@ -346,13 +352,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>3</v>

--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">acronym</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prof. Scot Labadie</t>
   </si>
   <si>
@@ -43,12 +46,18 @@
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
+    <t xml:space="preserve">area_a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enrique Kassulke</t>
   </si>
   <si>
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
+    <t xml:space="preserve">area_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr. Marian Altenwerth I</t>
   </si>
   <si>
@@ -56,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">naomi15@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_c</t>
   </si>
   <si>
     <t xml:space="preserve">Beth Bauch</t>
@@ -175,9 +187,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,13 +213,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -223,145 +239,178 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">acronym</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Scot Labadie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labadie</t>
+    <t xml:space="preserve">Scot Labadie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizado</t>
   </si>
   <si>
     <t xml:space="preserve">nienow.jane@example.com</t>
@@ -58,37 +58,19 @@
     <t xml:space="preserve">area_b</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Marian Altenwerth I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marian Altenwerth I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naomi15@example.net</t>
+    <t xml:space="preserve">Madonna Hirthe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berta77@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">area_c</t>
   </si>
   <si>
-    <t xml:space="preserve">Beth Bauch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuvalis.catalina@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filiberto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pleannon@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jovany Daugherty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacobi.rodrigo@example.net</t>
+    <t xml:space="preserve">Yesenia Gerlach IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dejuan.ferry@example.net</t>
   </si>
   <si>
     <t xml:space="preserve">Garfield Ryan</t>
@@ -103,16 +85,40 @@
     <t xml:space="preserve">mazie24@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Ms. Leora Haag II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awehner@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo Sauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloyd.grady@example.com</t>
+    <t xml:space="preserve">Melyssa Zieme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schaden.kenny@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geovany Ratke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiara.sanford@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeramie Rowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eudora45@example.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flossie Franecki IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guadalupe.ryan@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyleigh Heathcote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sterling02@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyric Leannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agatha</t>
   </si>
 </sst>
 </file>
@@ -187,13 +193,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,209 +223,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E11"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lyric Leannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agatha</t>
   </si>
 </sst>
 </file>
@@ -128,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -150,13 +147,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,11 +212,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,6 +233,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -227,10 +301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -264,13 +338,13 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -279,15 +353,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -304,7 +378,7 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -321,7 +395,7 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -332,13 +406,13 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -349,13 +423,13 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -372,7 +446,7 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -389,7 +463,7 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -406,103 +480,70 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="2"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -122,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +143,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,13 +194,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -216,10 +227,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:E11"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.47"/>
@@ -318,7 +329,7 @@
       <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">

--- a/public/DataUpload/users-encabezados-2.xlsx
+++ b/public/DataUpload/users-encabezados-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">acronym</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scot Labadie</t>
   </si>
   <si>
@@ -46,25 +43,16 @@
     <t xml:space="preserve">nienow.jane@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">area_a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enrique Kassulke</t>
   </si>
   <si>
     <t xml:space="preserve">mandy.hodkiewicz@example.org</t>
   </si>
   <si>
-    <t xml:space="preserve">area_b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Madonna Hirthe</t>
   </si>
   <si>
     <t xml:space="preserve">berta77@example.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_c</t>
   </si>
   <si>
     <t xml:space="preserve">Yesenia Gerlach IV</t>
@@ -203,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +202,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -297,21 +281,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,223 +312,172 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
